--- a/data/topic_polygons.xlsx
+++ b/data/topic_polygons.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Revi\Desktop\Github\Twin Shelves 2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE9A9F9-D4B8-4D28-A9A1-BDF1D2E0966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A001706-7F8C-4A34-A0DA-765D4DB147C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{947AC799-C70E-4069-BD4E-C9549BB2958C}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -178,7 +178,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -517,16 +517,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F13559-951A-47A0-A686-1C942B342977}">
   <dimension ref="A1:R109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="48" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="H109" sqref="A1:H109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.08984375" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="6" width="8.7265625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="15.08984375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="6" width="8.7265625" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="8" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
@@ -1035,11 +1034,11 @@
         <v>225.67</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" ref="G16:G19" si="5">C16/E16</f>
+        <f t="shared" ref="G16:G17" si="5">C16/E16</f>
         <v>7.7979409981492109E-2</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" ref="H16:H19" si="6">D16/F16</f>
+        <f t="shared" ref="H16:H17" si="6">D16/F16</f>
         <v>0.48267824699782874</v>
       </c>
     </row>
@@ -1095,7 +1094,7 @@
         <v>0.40795021220243793</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" ref="H18:H33" si="8">D18/F18</f>
+        <f t="shared" ref="H18:H31" si="8">D18/F18</f>
         <v>0.60909735454424607</v>
       </c>
     </row>
@@ -2865,7 +2864,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2893,7 +2892,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2921,7 +2920,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -2949,7 +2948,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -2977,7 +2976,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3005,7 +3004,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -3033,7 +3032,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -3061,7 +3060,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B89">
         <v>4</v>
